--- a/тест кейсы. Кирсанова 1 .xlsx
+++ b/тест кейсы. Кирсанова 1 .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
   <si>
     <t>passed</t>
   </si>
@@ -495,7 +495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,6 +703,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -854,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -983,6 +992,21 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -998,21 +1022,7 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1470,7 +1480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1526,10 +1536,10 @@
   <dimension ref="A1:DT61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1545,7 +1555,7 @@
     <col min="9" max="9" width="5.42578125" customWidth="1"/>
     <col min="10" max="10" width="1.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="2.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
     <col min="13" max="13" width="2.140625" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="2.140625" customWidth="1"/>
@@ -1573,7 +1583,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$42,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1618,7 +1628,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1661,7 +1671,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22">
+        <v>43998</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="22"/>
       <c r="O3" s="11"/>
@@ -1745,43 +1757,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="53" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="56"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="48" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="48" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="55"/>
+      <c r="P6" s="48"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="55"/>
+      <c r="R6" s="48"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="55"/>
+      <c r="T6" s="48"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1791,29 +1803,29 @@
     </row>
     <row r="7" spans="1:124" ht="126.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="57"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="55"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="55"/>
+      <c r="N7" s="48"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="55"/>
+      <c r="P7" s="48"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="55"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="55"/>
+      <c r="T7" s="48"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1843,7 +1855,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1879,7 +1893,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1915,7 +1931,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -2085,7 +2103,9 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="58" t="s">
+        <v>1</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -2121,7 +2141,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -2157,7 +2179,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -3614,6 +3638,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3621,12 +3651,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 N12:N42 N8:N10 L8:L10 R8:R10 P8:P10 T8:T10 T12:T42 P12:P42 R12:R42">
